--- a/reporting_tool/trading_service/output/GiaoDichLuuKy/BaoCaoTuan/18-22.10.2021/Báo cáo tiền gửi và số lượng tài khoản 18-22.10.2021.xlsx
+++ b/reporting_tool/trading_service/output/GiaoDichLuuKy/BaoCaoTuan/18-22.10.2021/Báo cáo tiền gửi và số lượng tài khoản 18-22.10.2021.xlsx
@@ -1,22 +1,167 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiepdang\PycharmProjects\DataAnalytics\reporting_tool\trading_service\output\GiaoDichLuuKy\BaoCaoTuan\18-22.10.2021\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="T.Bia" sheetId="1" r:id="rId1"/>
     <sheet name="I_06211" sheetId="2" r:id="rId2"/>
     <sheet name="II_06212" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Hiep Dang Vo</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Hiep Dang Vo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+4,708</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Hiep Dang Vo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+73,868</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Hiep Dang Vo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+222</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Hiep Dang Vo</author>
+  </authors>
+  <commentList>
+    <comment ref="D5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Hiep Dang Vo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+59,101,092,070</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Hiep Dang Vo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+3,999,081,694</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
   <si>
     <t>Công Ty Cổ Phần Chứng Khoán Phú Hưng</t>
   </si>
@@ -201,12 +346,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0"/>
-    <numFmt numFmtId="164" formatCode="#,##0"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,8 +409,21 @@
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,6 +433,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFABF8F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,7 +470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -318,53 +478,65 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -372,6 +544,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -418,7 +598,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -450,9 +630,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -484,6 +665,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -659,12 +841,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
@@ -672,118 +854,118 @@
     <col min="4" max="4" width="39.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="20" customHeight="1">
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="D10" s="4" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="5" t="s">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="7" t="s">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="7" t="s">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="9" t="s">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="C17" s="10" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="C18" s="10" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="D22" s="4" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="11" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="D23" s="11" t="s">
+      <c r="B23" s="19"/>
+      <c r="D23" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="12" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="D24" s="12" t="s">
+      <c r="B24" s="20"/>
+      <c r="D24" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="11" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="D29" s="11" t="s">
+      <c r="B29" s="19"/>
+      <c r="D29" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -803,112 +985,115 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" customWidth="1"/>
     <col min="3" max="4" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="13">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="14">
-        <v>4700</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="22">
+        <v>4704</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="13">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="14">
-        <v>73927</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="22">
+        <v>73971</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="13">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>31</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="13">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="22">
         <v>128</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="15">
-        <v>78786</v>
-      </c>
-      <c r="D6" s="13"/>
+      <c r="C6" s="14">
+        <v>78834</v>
+      </c>
+      <c r="D6" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="50.7109375" customWidth="1"/>
@@ -917,212 +1102,212 @@
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="5" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="17">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
         <v>1</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>25380302761</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="17">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
         <v>2</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="22">
         <v>59104569587</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="17">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
         <v>3</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="22">
         <v>4319635358</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="17">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
         <v>4</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>356433913</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="17">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
         <v>5</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>3253396755</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="17">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
         <v>6</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>65908064063</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="17">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
         <v>7</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>56781120236</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="17">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
         <v>8</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>37805899587</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="17">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
         <v>9</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>85749432863</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="17">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
         <v>10</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>2105353065</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="15">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="14">
         <v>340764208188</v>
       </c>
-      <c r="E14" s="15"/>
+      <c r="E14" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1130,5 +1315,6 @@
     <mergeCell ref="A14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>